--- a/results/Temp Results/lmer_main_effect_m1_basin_season_temp.xlsx
+++ b/results/Temp Results/lmer_main_effect_m1_basin_season_temp.xlsx
@@ -383,13 +383,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1.26290766971107</v>
+        <v>1.26335362461364</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5318180630627</v>
+        <v>0.531699492846186</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>24253.1061406132</v>
+        <v>24252.7758775019</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -411,13 +411,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>545.987032363814</v>
+        <v>545.973104340279</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000010348530586388</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000104203196839449</v>
       </c>
     </row>
   </sheetData>

--- a/results/Temp Results/lmer_main_effect_m1_basin_season_temp.xlsx
+++ b/results/Temp Results/lmer_main_effect_m1_basin_season_temp.xlsx
@@ -383,13 +383,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1.26335362461364</v>
+        <v>1.26419815983392</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.531699492846186</v>
+        <v>0.531475020769009</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>24252.7758775019</v>
+        <v>24253.1967591745</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -411,13 +411,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>545.973104340279</v>
+        <v>545.931539920301</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000104203196839449</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000106375289940729</v>
       </c>
     </row>
   </sheetData>
